--- a/Final_results/INSEE_Text_2020.xlsx
+++ b/Final_results/INSEE_Text_2020.xlsx
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2021-01-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 12 January 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 12 January 2021.</t>
@@ -1007,11 +1007,10 @@
     <t xml:space="preserve">-4.0 (85)</t>
   </si>
   <si>
-    <t xml:space="preserve">
--4.0 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (85)</t>
+    <t xml:space="preserve">-4.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -9080,91 +9079,91 @@
         <v>255</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="D73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="G73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="J73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
       </c>
       <c r="P73" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
       </c>
       <c r="S73" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
       </c>
       <c r="V73" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="W73" t="s">
         <v>257</v>
       </c>
       <c r="X73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="Y73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z73" t="s">
         <v>258</v>
       </c>
       <c r="AA73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="AB73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC73" t="s">
         <v>258</v>
       </c>
       <c r="AD73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="AE73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF73" t="s">
         <v>258</v>

--- a/Final_results/INSEE_Text_2020.xlsx
+++ b/Final_results/INSEE_Text_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">2020-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 January 2020. Using ONLY information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 January 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 January 2020.</t>
@@ -889,19 +889,26 @@
     <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 August 2020. Using ONLY information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 August 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (50)</t>
+    <t xml:space="preserve">+16.0 (80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+16.0 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+15.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+18.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++18.0 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
@@ -928,7 +935,7 @@
     <t xml:space="preserve">2020-10-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 07 October 2020. Using ONLY information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 07 October 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 07 October 2020.</t>
@@ -937,62 +944,61 @@
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (85)</t>
+    <t xml:space="preserve">+18.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 08 November 2020. Using ONLY information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 08 November 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.5 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.5 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (40)</t>
+    <t xml:space="preserve">-2.8 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">
--4.0 (40)</t>
+-2.8 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.4 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.2 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 13 December 2020. Using ONLY information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 13 December 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.5 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (70)</t>
+    <t xml:space="preserve">-2.5 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-2.5 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.5 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.5 (80)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-12</t>
@@ -7906,28 +7912,28 @@
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="I61" t="n">
         <v>0.2</v>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K61" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="L61" t="n">
         <v>0.2</v>
@@ -7969,28 +7975,28 @@
         <v>0.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z61" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AA61" t="n">
         <v>0.2</v>
       </c>
       <c r="AB61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC61" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AD61" t="n">
         <v>0.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF61" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
@@ -8592,7 +8598,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
         <v>225</v>
@@ -8601,7 +8607,7 @@
         <v>16</v>
       </c>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
         <v>225</v>
@@ -8610,7 +8616,7 @@
         <v>16</v>
       </c>
       <c r="J68" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s">
         <v>225</v>
@@ -8619,7 +8625,7 @@
         <v>16</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N68" t="s">
         <v>226</v>
@@ -8628,63 +8634,63 @@
         <v>16</v>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q68" t="s">
         <v>226</v>
       </c>
       <c r="R68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S68" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="T68" t="s">
         <v>227</v>
       </c>
       <c r="U68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="W68" t="s">
         <v>227</v>
       </c>
       <c r="X68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AA68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC68" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AD68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C69" t="n">
         <v>17</v>
@@ -8693,7 +8699,7 @@
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F69" t="n">
         <v>17</v>
@@ -8702,7 +8708,7 @@
         <v>75</v>
       </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I69" t="n">
         <v>17</v>
@@ -8711,7 +8717,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L69" t="n">
         <v>17</v>
@@ -8720,7 +8726,7 @@
         <v>85</v>
       </c>
       <c r="N69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O69" t="n">
         <v>17</v>
@@ -8729,7 +8735,7 @@
         <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R69" t="n">
         <v>17</v>
@@ -8738,7 +8744,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U69" t="n">
         <v>17</v>
@@ -8747,7 +8753,7 @@
         <v>80</v>
       </c>
       <c r="W69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="X69" t="n">
         <v>17</v>
@@ -8756,7 +8762,7 @@
         <v>65</v>
       </c>
       <c r="Z69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -8765,7 +8771,7 @@
         <v>65</v>
       </c>
       <c r="AC69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AD69" t="n">
         <v>17</v>
@@ -8774,15 +8780,15 @@
         <v>65</v>
       </c>
       <c r="AF69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C70" t="n">
         <v>16</v>
@@ -8791,7 +8797,7 @@
         <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F70" t="n">
         <v>16</v>
@@ -8800,7 +8806,7 @@
         <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I70" t="n">
         <v>16</v>
@@ -8809,25 +8815,25 @@
         <v>90</v>
       </c>
       <c r="K70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M70" t="n">
         <v>85</v>
       </c>
       <c r="N70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P70" t="n">
         <v>85</v>
       </c>
       <c r="Q70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
@@ -8836,7 +8842,7 @@
         <v>90</v>
       </c>
       <c r="T70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
@@ -8845,200 +8851,200 @@
         <v>90</v>
       </c>
       <c r="W70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X70" t="n">
         <v>16</v>
       </c>
       <c r="Y70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA70" t="n">
         <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AD70" t="n">
         <v>16</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C71" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F71" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="G71" t="n">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>242</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s">
+        <v>243</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>65</v>
+      </c>
+      <c r="N71" t="s">
+        <v>244</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="P71" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>244</v>
+      </c>
+      <c r="R71" t="n">
         <v>-4.2</v>
       </c>
-      <c r="G71" t="n">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s">
-        <v>241</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>35</v>
-      </c>
-      <c r="K71" t="s">
-        <v>242</v>
-      </c>
-      <c r="L71" t="n">
+      <c r="S71" t="n">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s">
+        <v>245</v>
+      </c>
+      <c r="U71" t="n">
         <v>-4.2</v>
       </c>
-      <c r="M71" t="n">
-        <v>60</v>
-      </c>
-      <c r="N71" t="s">
-        <v>243</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="P71" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>243</v>
-      </c>
-      <c r="R71" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>50</v>
-      </c>
-      <c r="T71" t="s">
-        <v>244</v>
-      </c>
-      <c r="U71" t="n">
-        <v>-4</v>
-      </c>
       <c r="V71" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="W71" t="s">
         <v>245</v>
       </c>
       <c r="X71" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Z71" t="s">
         <v>246</v>
       </c>
       <c r="AA71" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC71" t="s">
         <v>246</v>
       </c>
       <c r="AD71" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AF71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
         <v>248</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>85</v>
+      </c>
+      <c r="E72" t="s">
         <v>249</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>250</v>
       </c>
       <c r="F72" t="n">
         <v>-2.5</v>
       </c>
       <c r="G72" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I72" t="n">
         <v>-2.5</v>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s">
+        <v>250</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>65</v>
+      </c>
+      <c r="N72" t="s">
         <v>251</v>
       </c>
-      <c r="L72" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="M72" t="n">
-        <v>75</v>
-      </c>
-      <c r="N72" t="s">
-        <v>252</v>
-      </c>
       <c r="O72" t="n">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="P72" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R72" t="n">
         <v>-4</v>
       </c>
       <c r="S72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U72" t="n">
         <v>-4</v>
       </c>
       <c r="V72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="W72" t="s">
         <v>253</v>
@@ -9047,36 +9053,36 @@
         <v>-2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C73" t="n">
         <v>-4</v>
@@ -9085,7 +9091,7 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F73" t="n">
         <v>-4</v>
@@ -9094,7 +9100,7 @@
         <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I73" t="n">
         <v>-4</v>
@@ -9103,7 +9109,7 @@
         <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9112,7 +9118,7 @@
         <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9121,7 +9127,7 @@
         <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9130,7 +9136,7 @@
         <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9139,7 +9145,7 @@
         <v>60</v>
       </c>
       <c r="W73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9148,7 +9154,7 @@
         <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9157,7 +9163,7 @@
         <v>75</v>
       </c>
       <c r="AC73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9166,15 +9172,15 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74" t="n">
         <v>-0.1</v>
@@ -9183,7 +9189,7 @@
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F74" t="n">
         <v>-0.1</v>
@@ -9192,7 +9198,7 @@
         <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I74" t="n">
         <v>-0.1</v>
@@ -9201,7 +9207,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L74" t="n">
         <v>-0.1</v>
@@ -9210,7 +9216,7 @@
         <v>45</v>
       </c>
       <c r="N74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O74" t="n">
         <v>-0.1</v>
@@ -9219,7 +9225,7 @@
         <v>45</v>
       </c>
       <c r="Q74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R74" t="n">
         <v>0.1</v>
@@ -9246,7 +9252,7 @@
         <v>55</v>
       </c>
       <c r="Z74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA74" t="n">
         <v>0.1</v>
@@ -9255,7 +9261,7 @@
         <v>55</v>
       </c>
       <c r="AC74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AD74" t="n">
         <v>0.1</v>
@@ -9264,15 +9270,15 @@
         <v>55</v>
       </c>
       <c r="AF74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C75" t="n">
         <v>-0.3</v>
@@ -9281,7 +9287,7 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F75" t="n">
         <v>-0.3</v>
@@ -9290,7 +9296,7 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I75" t="n">
         <v>-0.3</v>
@@ -9299,7 +9305,7 @@
         <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L75" t="n">
         <v>-0.4</v>
@@ -9308,7 +9314,7 @@
         <v>65</v>
       </c>
       <c r="N75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O75" t="n">
         <v>-0.4</v>
@@ -9317,7 +9323,7 @@
         <v>65</v>
       </c>
       <c r="Q75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R75" t="n">
         <v>-0.2</v>
@@ -9326,7 +9332,7 @@
         <v>55</v>
       </c>
       <c r="T75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U75" t="n">
         <v>-0.2</v>
@@ -9335,7 +9341,7 @@
         <v>55</v>
       </c>
       <c r="W75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X75" t="n">
         <v>-0.1</v>
@@ -9344,7 +9350,7 @@
         <v>60</v>
       </c>
       <c r="Z75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA75" t="n">
         <v>-0.1</v>
@@ -9353,7 +9359,7 @@
         <v>60</v>
       </c>
       <c r="AC75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AD75" t="n">
         <v>-0.1</v>
@@ -9362,15 +9368,15 @@
         <v>60</v>
       </c>
       <c r="AF75" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C76" t="n">
         <v>0.1</v>
@@ -9465,10 +9471,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
@@ -9477,7 +9483,7 @@
         <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F77" t="n">
         <v>0.5</v>
@@ -9486,7 +9492,7 @@
         <v>65</v>
       </c>
       <c r="H77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I77" t="n">
         <v>0.5</v>
@@ -9495,7 +9501,7 @@
         <v>65</v>
       </c>
       <c r="K77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L77" t="n">
         <v>0.3</v>
@@ -9522,7 +9528,7 @@
         <v>45</v>
       </c>
       <c r="T77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U77" t="n">
         <v>0.1</v>
@@ -9531,7 +9537,7 @@
         <v>45</v>
       </c>
       <c r="W77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X77" t="n">
         <v>0.2</v>
@@ -9563,10 +9569,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C78" t="n">
         <v>0.7</v>
@@ -9575,7 +9581,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F78" t="n">
         <v>0.7</v>
@@ -9584,7 +9590,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I78" t="n">
         <v>0.7</v>
@@ -9593,7 +9599,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L78" t="n">
         <v>0.8</v>
@@ -9602,7 +9608,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O78" t="n">
         <v>0.8</v>
@@ -9611,7 +9617,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R78" t="n">
         <v>0.7</v>
@@ -9620,7 +9626,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U78" t="n">
         <v>0.7</v>
@@ -9629,7 +9635,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X78" t="n">
         <v>0.7</v>
@@ -9638,7 +9644,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA78" t="n">
         <v>0.7</v>
@@ -9647,7 +9653,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD78" t="n">
         <v>0.7</v>
@@ -9656,15 +9662,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9673,7 +9679,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9682,7 +9688,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9691,7 +9697,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L79" t="n">
         <v>0.7</v>
@@ -9700,7 +9706,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O79" t="n">
         <v>0.7</v>
@@ -9709,7 +9715,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R79" t="n">
         <v>0.7</v>
@@ -9718,7 +9724,7 @@
         <v>90</v>
       </c>
       <c r="T79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U79" t="n">
         <v>0.7</v>
@@ -9727,7 +9733,7 @@
         <v>90</v>
       </c>
       <c r="W79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X79" t="n">
         <v>0.9</v>
@@ -9736,12 +9742,12 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA79"/>
       <c r="AB79"/>
       <c r="AC79" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD79" t="n">
         <v>0.9</v>
@@ -9750,15 +9756,15 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C80" t="n">
         <v>0.9</v>
@@ -9767,7 +9773,7 @@
         <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F80" t="n">
         <v>2.5</v>
@@ -9776,7 +9782,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I80" t="n">
         <v>2.5</v>
@@ -9785,7 +9791,7 @@
         <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L80" t="n">
         <v>2.1</v>
@@ -9794,7 +9800,7 @@
         <v>70</v>
       </c>
       <c r="N80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O80" t="n">
         <v>2.1</v>
@@ -9803,7 +9809,7 @@
         <v>70</v>
       </c>
       <c r="Q80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R80" t="n">
         <v>2.4</v>
@@ -9812,7 +9818,7 @@
         <v>80</v>
       </c>
       <c r="T80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="U80" t="n">
         <v>2.4</v>
@@ -9821,7 +9827,7 @@
         <v>80</v>
       </c>
       <c r="W80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X80" t="n">
         <v>2.2</v>
@@ -9830,7 +9836,7 @@
         <v>80</v>
       </c>
       <c r="Z80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA80" t="n">
         <v>2.2</v>
@@ -9839,7 +9845,7 @@
         <v>80</v>
       </c>
       <c r="AC80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD80" t="n">
         <v>2.2</v>
@@ -9848,15 +9854,15 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C81" t="n">
         <v>2.7</v>
@@ -9865,7 +9871,7 @@
         <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F81" t="n">
         <v>2.7</v>
@@ -9874,7 +9880,7 @@
         <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I81" t="n">
         <v>2.7</v>
@@ -9883,7 +9889,7 @@
         <v>90</v>
       </c>
       <c r="K81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L81" t="n">
         <v>2.5</v>
@@ -9892,7 +9898,7 @@
         <v>90</v>
       </c>
       <c r="N81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O81" t="n">
         <v>2.5</v>
@@ -9901,7 +9907,7 @@
         <v>90</v>
       </c>
       <c r="Q81" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9910,7 +9916,7 @@
         <v>80</v>
       </c>
       <c r="T81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9919,7 +9925,7 @@
         <v>80</v>
       </c>
       <c r="W81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X81" t="n">
         <v>2.7</v>
@@ -9928,7 +9934,7 @@
         <v>90</v>
       </c>
       <c r="Z81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA81" t="n">
         <v>2.7</v>
@@ -9937,7 +9943,7 @@
         <v>90</v>
       </c>
       <c r="AC81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD81" t="n">
         <v>2.7</v>
@@ -9946,15 +9952,15 @@
         <v>90</v>
       </c>
       <c r="AF81" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B82" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C82" t="n">
         <v>2.5</v>
@@ -9963,7 +9969,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F82" t="n">
         <v>2.5</v>
@@ -9972,7 +9978,7 @@
         <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I82" t="n">
         <v>2.5</v>
@@ -9981,7 +9987,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L82" t="n">
         <v>2.5</v>
@@ -9990,7 +9996,7 @@
         <v>80</v>
       </c>
       <c r="N82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O82" t="n">
         <v>2.5</v>
@@ -9999,7 +10005,7 @@
         <v>80</v>
       </c>
       <c r="Q82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R82" t="n">
         <v>2.6</v>
@@ -10008,7 +10014,7 @@
         <v>75</v>
       </c>
       <c r="T82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U82" t="n">
         <v>2.6</v>
@@ -10017,7 +10023,7 @@
         <v>75</v>
       </c>
       <c r="W82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X82" t="n">
         <v>2.7</v>
@@ -10026,7 +10032,7 @@
         <v>85</v>
       </c>
       <c r="Z82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA82" t="n">
         <v>2.7</v>
@@ -10035,7 +10041,7 @@
         <v>85</v>
       </c>
       <c r="AC82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AD82" t="n">
         <v>2.7</v>
@@ -10044,15 +10050,15 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C83" t="n">
         <v>0.8</v>
@@ -10061,7 +10067,7 @@
         <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F83" t="n">
         <v>0.8</v>
@@ -10070,7 +10076,7 @@
         <v>75</v>
       </c>
       <c r="H83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I83" t="n">
         <v>0.8</v>
@@ -10079,7 +10085,7 @@
         <v>75</v>
       </c>
       <c r="K83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L83" t="n">
         <v>0.6</v>
@@ -10088,7 +10094,7 @@
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O83" t="n">
         <v>0.6</v>
@@ -10097,7 +10103,7 @@
         <v>80</v>
       </c>
       <c r="Q83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R83" t="n">
         <v>0.7</v>
@@ -10106,7 +10112,7 @@
         <v>85</v>
       </c>
       <c r="T83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -10115,7 +10121,7 @@
         <v>85</v>
       </c>
       <c r="W83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X83" t="n">
         <v>0.6</v>
@@ -10124,7 +10130,7 @@
         <v>75</v>
       </c>
       <c r="Z83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA83" t="n">
         <v>0.6</v>
@@ -10133,7 +10139,7 @@
         <v>75</v>
       </c>
       <c r="AC83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AD83" t="n">
         <v>0.6</v>
@@ -10142,15 +10148,15 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C84" t="n">
         <v>0.6</v>
@@ -10159,7 +10165,7 @@
         <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -10168,7 +10174,7 @@
         <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -10177,7 +10183,7 @@
         <v>65</v>
       </c>
       <c r="K84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L84" t="n">
         <v>0.6</v>
@@ -10186,7 +10192,7 @@
         <v>70</v>
       </c>
       <c r="N84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O84" t="n">
         <v>0.6</v>
@@ -10195,7 +10201,7 @@
         <v>70</v>
       </c>
       <c r="Q84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R84" t="n">
         <v>0.6</v>
@@ -10204,7 +10210,7 @@
         <v>75</v>
       </c>
       <c r="T84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U84" t="n">
         <v>0.6</v>
@@ -10213,7 +10219,7 @@
         <v>75</v>
       </c>
       <c r="W84" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -10222,7 +10228,7 @@
         <v>80</v>
       </c>
       <c r="Z84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
@@ -10231,7 +10237,7 @@
         <v>80</v>
       </c>
       <c r="AC84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
@@ -10240,15 +10246,15 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C85" t="n">
         <v>0.6</v>
@@ -10257,7 +10263,7 @@
         <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F85" t="n">
         <v>0.6</v>
@@ -10266,7 +10272,7 @@
         <v>70</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I85" t="n">
         <v>0.6</v>
@@ -10275,7 +10281,7 @@
         <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L85" t="n">
         <v>0.5</v>
@@ -10320,7 +10326,7 @@
         <v>75</v>
       </c>
       <c r="Z85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA85" t="n">
         <v>0.5</v>
@@ -10343,10 +10349,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C86" t="n">
         <v>0.2</v>
@@ -10441,10 +10447,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -10453,7 +10459,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -10462,7 +10468,7 @@
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -10471,7 +10477,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L87" t="n">
         <v>0.3</v>
@@ -10516,7 +10522,7 @@
         <v>50</v>
       </c>
       <c r="Z87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10525,7 +10531,7 @@
         <v>50</v>
       </c>
       <c r="AC87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10534,15 +10540,15 @@
         <v>50</v>
       </c>
       <c r="AF87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -10578,7 +10584,7 @@
         <v>50</v>
       </c>
       <c r="N88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10587,7 +10593,7 @@
         <v>50</v>
       </c>
       <c r="Q88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10614,7 +10620,7 @@
         <v>50</v>
       </c>
       <c r="Z88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10623,7 +10629,7 @@
         <v>50</v>
       </c>
       <c r="AC88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10632,15 +10638,15 @@
         <v>50</v>
       </c>
       <c r="AF88" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10712,7 +10718,7 @@
         <v>50</v>
       </c>
       <c r="Z89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA89" t="n">
         <v>0.2</v>
@@ -10721,7 +10727,7 @@
         <v>50</v>
       </c>
       <c r="AC89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AD89" t="n">
         <v>0.2</v>
@@ -10730,15 +10736,15 @@
         <v>50</v>
       </c>
       <c r="AF89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10774,7 +10780,7 @@
         <v>55</v>
       </c>
       <c r="N90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O90" t="n">
         <v>0.1</v>
@@ -10783,7 +10789,7 @@
         <v>55</v>
       </c>
       <c r="Q90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R90" t="n">
         <v>0.2</v>
@@ -10833,10 +10839,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10931,10 +10937,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -11029,10 +11035,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -11127,10 +11133,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -11225,10 +11231,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
@@ -11264,7 +11270,7 @@
         <v>65</v>
       </c>
       <c r="N95" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O95" t="n">
         <v>-0.1</v>
@@ -11273,7 +11279,7 @@
         <v>65</v>
       </c>
       <c r="Q95" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R95" t="n">
         <v>-0.1</v>
@@ -11282,7 +11288,7 @@
         <v>45</v>
       </c>
       <c r="T95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U95" t="n">
         <v>-0.1</v>
@@ -11291,7 +11297,7 @@
         <v>45</v>
       </c>
       <c r="W95" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X95" t="n">
         <v>0</v>
@@ -11323,10 +11329,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -11335,7 +11341,7 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -11344,7 +11350,7 @@
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -11353,7 +11359,7 @@
         <v>65</v>
       </c>
       <c r="K96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -11380,7 +11386,7 @@
         <v>75</v>
       </c>
       <c r="T96" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U96" t="n">
         <v>0.1</v>
@@ -11389,7 +11395,7 @@
         <v>75</v>
       </c>
       <c r="W96" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X96" t="n">
         <v>-0.1</v>
@@ -11398,7 +11404,7 @@
         <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.1</v>
@@ -11407,7 +11413,7 @@
         <v>65</v>
       </c>
       <c r="AC96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.1</v>
@@ -11416,15 +11422,15 @@
         <v>65</v>
       </c>
       <c r="AF96" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -11478,7 +11484,7 @@
         <v>70</v>
       </c>
       <c r="T97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U97" t="n">
         <v>0.1</v>
@@ -11487,7 +11493,7 @@
         <v>70</v>
       </c>
       <c r="W97" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X97" t="n">
         <v>-0.1</v>
@@ -11496,7 +11502,7 @@
         <v>60</v>
       </c>
       <c r="Z97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA97" t="n">
         <v>-0.1</v>
@@ -11505,7 +11511,7 @@
         <v>60</v>
       </c>
       <c r="AC97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AD97" t="n">
         <v>-0.1</v>
@@ -11514,15 +11520,15 @@
         <v>60</v>
       </c>
       <c r="AF97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C98" t="n">
         <v>0.2</v>
@@ -11617,10 +11623,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11715,10 +11721,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C100" t="n">
         <v>0.1</v>
@@ -11727,7 +11733,7 @@
         <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
@@ -11736,7 +11742,7 @@
         <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I100" t="n">
         <v>0.1</v>
@@ -11745,7 +11751,7 @@
         <v>70</v>
       </c>
       <c r="K100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L100" t="n">
         <v>0.1</v>
@@ -11813,10 +11819,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11911,10 +11917,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11968,7 +11974,7 @@
         <v>65</v>
       </c>
       <c r="T102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U102" t="n">
         <v>-0.1</v>
@@ -11977,7 +11983,7 @@
         <v>65</v>
       </c>
       <c r="W102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X102" t="n">
         <v>-0.1</v>
@@ -11986,7 +11992,7 @@
         <v>65</v>
       </c>
       <c r="Z102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA102" t="n">
         <v>-0.1</v>
@@ -11995,7 +12001,7 @@
         <v>65</v>
       </c>
       <c r="AC102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD102" t="n">
         <v>-0.1</v>
@@ -12004,15 +12010,15 @@
         <v>65</v>
       </c>
       <c r="AF102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -12084,7 +12090,7 @@
         <v>75</v>
       </c>
       <c r="Z103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -12093,7 +12099,7 @@
         <v>75</v>
       </c>
       <c r="AC103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -12102,15 +12108,15 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B104" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12205,10 +12211,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B105" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12217,7 +12223,7 @@
         <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -12226,7 +12232,7 @@
         <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -12235,7 +12241,7 @@
         <v>70</v>
       </c>
       <c r="K105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12244,7 +12250,7 @@
         <v>70</v>
       </c>
       <c r="N105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12253,7 +12259,7 @@
         <v>70</v>
       </c>
       <c r="Q105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12280,7 +12286,7 @@
         <v>70</v>
       </c>
       <c r="Z105" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA105" t="n">
         <v>-0.1</v>
@@ -12289,7 +12295,7 @@
         <v>70</v>
       </c>
       <c r="AC105" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD105" t="n">
         <v>-0.1</v>
@@ -12298,15 +12304,15 @@
         <v>70</v>
       </c>
       <c r="AF105" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B106" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12401,10 +12407,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C107" t="n">
         <v>-0.1</v>
@@ -12413,7 +12419,7 @@
         <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F107" t="n">
         <v>-0.1</v>
@@ -12422,7 +12428,7 @@
         <v>75</v>
       </c>
       <c r="H107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I107" t="n">
         <v>-0.1</v>
@@ -12431,7 +12437,7 @@
         <v>75</v>
       </c>
       <c r="K107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L107" t="n">
         <v>-0.1</v>
@@ -12440,7 +12446,7 @@
         <v>65</v>
       </c>
       <c r="N107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O107" t="n">
         <v>-0.1</v>
@@ -12449,7 +12455,7 @@
         <v>65</v>
       </c>
       <c r="Q107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R107" t="n">
         <v>-0.1</v>
@@ -12458,7 +12464,7 @@
         <v>70</v>
       </c>
       <c r="T107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U107" t="n">
         <v>-0.1</v>
@@ -12467,7 +12473,7 @@
         <v>70</v>
       </c>
       <c r="W107" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="X107" t="n">
         <v>-0.1</v>
@@ -12476,7 +12482,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA107" t="n">
         <v>-0.1</v>
@@ -12485,7 +12491,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD107" t="n">
         <v>-0.1</v>
@@ -12494,15 +12500,15 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12538,7 +12544,7 @@
         <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O108" t="n">
         <v>-0.1</v>
@@ -12547,7 +12553,7 @@
         <v>75</v>
       </c>
       <c r="Q108" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R108" t="n">
         <v>-0.1</v>
@@ -12556,7 +12562,7 @@
         <v>65</v>
       </c>
       <c r="T108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U108" t="n">
         <v>-0.1</v>
@@ -12565,7 +12571,7 @@
         <v>65</v>
       </c>
       <c r="W108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -12597,10 +12603,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -12636,7 +12642,7 @@
         <v>70</v>
       </c>
       <c r="N109" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O109" t="n">
         <v>-0.1</v>
@@ -12645,7 +12651,7 @@
         <v>70</v>
       </c>
       <c r="Q109" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R109" t="n">
         <v>0.1</v>
@@ -12695,10 +12701,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -12793,10 +12799,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12891,10 +12897,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12989,10 +12995,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -13087,10 +13093,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B114" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C114" t="n">
         <v>0.1</v>
@@ -13144,7 +13150,7 @@
         <v>55</v>
       </c>
       <c r="T114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U114" t="n">
         <v>0.1</v>
@@ -13153,7 +13159,7 @@
         <v>55</v>
       </c>
       <c r="W114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X114" t="n">
         <v>0.1</v>
@@ -13185,10 +13191,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B115" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13197,7 +13203,7 @@
         <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
@@ -13206,7 +13212,7 @@
         <v>75</v>
       </c>
       <c r="H115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
@@ -13215,7 +13221,7 @@
         <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -13283,10 +13289,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B116" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C116" t="n">
         <v>-0.1</v>
@@ -13295,7 +13301,7 @@
         <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1</v>
@@ -13304,7 +13310,7 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1</v>
@@ -13313,7 +13319,7 @@
         <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L116" t="n">
         <v>-0.1</v>
@@ -13322,7 +13328,7 @@
         <v>60</v>
       </c>
       <c r="N116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O116" t="n">
         <v>-0.1</v>
@@ -13331,7 +13337,7 @@
         <v>60</v>
       </c>
       <c r="Q116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R116" t="n">
         <v>-0.1</v>
@@ -13340,7 +13346,7 @@
         <v>75</v>
       </c>
       <c r="T116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U116" t="n">
         <v>-0.1</v>
@@ -13349,7 +13355,7 @@
         <v>75</v>
       </c>
       <c r="W116" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X116" t="n">
         <v>-0.2</v>
@@ -13358,7 +13364,7 @@
         <v>75</v>
       </c>
       <c r="Z116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.2</v>
@@ -13367,7 +13373,7 @@
         <v>75</v>
       </c>
       <c r="AC116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AD116" t="n">
         <v>-0.2</v>
@@ -13376,15 +13382,15 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C117" t="n">
         <v>-0.1</v>
@@ -13393,7 +13399,7 @@
         <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1</v>
@@ -13402,7 +13408,7 @@
         <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I117" t="n">
         <v>-0.1</v>
@@ -13411,7 +13417,7 @@
         <v>60</v>
       </c>
       <c r="K117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L117" t="n">
         <v>0.1</v>
@@ -13479,10 +13485,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C118" t="n">
         <v>-0.1</v>
@@ -13491,7 +13497,7 @@
         <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F118" t="n">
         <v>-0.1</v>
@@ -13500,7 +13506,7 @@
         <v>70</v>
       </c>
       <c r="H118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I118" t="n">
         <v>-0.1</v>
@@ -13509,7 +13515,7 @@
         <v>70</v>
       </c>
       <c r="K118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L118" t="n">
         <v>-0.1</v>
@@ -13518,7 +13524,7 @@
         <v>70</v>
       </c>
       <c r="N118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O118" t="n">
         <v>-0.1</v>
@@ -13527,7 +13533,7 @@
         <v>70</v>
       </c>
       <c r="Q118" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R118" t="n">
         <v>-0.1</v>
@@ -13536,7 +13542,7 @@
         <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U118" t="n">
         <v>-0.1</v>
@@ -13545,7 +13551,7 @@
         <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X118" t="n">
         <v>-0.1</v>
@@ -13554,7 +13560,7 @@
         <v>75</v>
       </c>
       <c r="Z118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA118" t="n">
         <v>-0.1</v>
@@ -13563,7 +13569,7 @@
         <v>75</v>
       </c>
       <c r="AC118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD118" t="n">
         <v>-0.1</v>
@@ -13572,15 +13578,15 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C119" t="n">
         <v>-0.1</v>
@@ -13589,7 +13595,7 @@
         <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F119" t="n">
         <v>-0.1</v>
@@ -13598,7 +13604,7 @@
         <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I119" t="n">
         <v>-0.1</v>
@@ -13607,7 +13613,7 @@
         <v>65</v>
       </c>
       <c r="K119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L119" t="n">
         <v>0.1</v>
@@ -13634,7 +13640,7 @@
         <v>55</v>
       </c>
       <c r="T119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U119" t="n">
         <v>-0.1</v>
@@ -13643,7 +13649,7 @@
         <v>55</v>
       </c>
       <c r="W119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X119" t="n">
         <v>-0.1</v>
@@ -13652,7 +13658,7 @@
         <v>65</v>
       </c>
       <c r="Z119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.1</v>
@@ -13661,7 +13667,7 @@
         <v>65</v>
       </c>
       <c r="AC119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD119" t="n">
         <v>-0.1</v>
@@ -13670,15 +13676,15 @@
         <v>65</v>
       </c>
       <c r="AF119" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -13714,7 +13720,7 @@
         <v>65</v>
       </c>
       <c r="N120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O120" t="n">
         <v>-0.1</v>
@@ -13723,7 +13729,7 @@
         <v>65</v>
       </c>
       <c r="Q120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R120" t="n">
         <v>-0.1</v>
@@ -13732,7 +13738,7 @@
         <v>65</v>
       </c>
       <c r="T120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U120" t="n">
         <v>-0.1</v>
@@ -13741,7 +13747,7 @@
         <v>65</v>
       </c>
       <c r="W120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="X120" t="n">
         <v>-0.1</v>
@@ -13750,7 +13756,7 @@
         <v>65</v>
       </c>
       <c r="Z120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.1</v>
@@ -13759,7 +13765,7 @@
         <v>65</v>
       </c>
       <c r="AC120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD120" t="n">
         <v>-0.1</v>
@@ -13768,15 +13774,15 @@
         <v>65</v>
       </c>
       <c r="AF120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C121" t="n">
         <v>-0.1</v>
@@ -13785,7 +13791,7 @@
         <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F121" t="n">
         <v>-0.1</v>
@@ -13794,7 +13800,7 @@
         <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I121" t="n">
         <v>-0.1</v>
@@ -13803,7 +13809,7 @@
         <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L121" t="n">
         <v>-0.1</v>
@@ -13812,7 +13818,7 @@
         <v>75</v>
       </c>
       <c r="N121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O121" t="n">
         <v>-0.1</v>
@@ -13821,7 +13827,7 @@
         <v>75</v>
       </c>
       <c r="Q121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R121" t="n">
         <v>-0.1</v>
@@ -13830,7 +13836,7 @@
         <v>70</v>
       </c>
       <c r="T121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U121" t="n">
         <v>-0.1</v>
@@ -13839,7 +13845,7 @@
         <v>70</v>
       </c>
       <c r="W121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="X121" t="n">
         <v>-0.1</v>
@@ -13848,7 +13854,7 @@
         <v>75</v>
       </c>
       <c r="Z121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA121" t="n">
         <v>-0.1</v>
@@ -13857,7 +13863,7 @@
         <v>75</v>
       </c>
       <c r="AC121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD121" t="n">
         <v>-0.1</v>
@@ -13866,15 +13872,15 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1</v>
@@ -13883,7 +13889,7 @@
         <v>70</v>
       </c>
       <c r="E122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F122" t="n">
         <v>-0.1</v>
@@ -13892,7 +13898,7 @@
         <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I122" t="n">
         <v>-0.1</v>
@@ -13901,7 +13907,7 @@
         <v>70</v>
       </c>
       <c r="K122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L122" t="n">
         <v>-0.1</v>
@@ -13910,7 +13916,7 @@
         <v>65</v>
       </c>
       <c r="N122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O122" t="n">
         <v>-0.1</v>
@@ -13919,7 +13925,7 @@
         <v>65</v>
       </c>
       <c r="Q122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R122" t="n">
         <v>-0.1</v>
@@ -13928,7 +13934,7 @@
         <v>75</v>
       </c>
       <c r="T122" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U122" t="n">
         <v>-0.1</v>
@@ -13937,7 +13943,7 @@
         <v>75</v>
       </c>
       <c r="W122" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X122" t="n">
         <v>-0.1</v>
@@ -13946,7 +13952,7 @@
         <v>65</v>
       </c>
       <c r="Z122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA122" t="n">
         <v>-0.1</v>
@@ -13955,7 +13961,7 @@
         <v>65</v>
       </c>
       <c r="AC122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD122" t="n">
         <v>-0.1</v>
@@ -13964,15 +13970,15 @@
         <v>65</v>
       </c>
       <c r="AF122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -14067,10 +14073,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -14106,7 +14112,7 @@
         <v>75</v>
       </c>
       <c r="N124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O124" t="n">
         <v>-0.1</v>
@@ -14115,7 +14121,7 @@
         <v>75</v>
       </c>
       <c r="Q124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R124" t="n">
         <v>-0.1</v>
@@ -14124,7 +14130,7 @@
         <v>75</v>
       </c>
       <c r="T124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="U124" t="n">
         <v>-0.1</v>
@@ -14133,7 +14139,7 @@
         <v>75</v>
       </c>
       <c r="W124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X124" t="n">
         <v>-0.1</v>
@@ -14142,7 +14148,7 @@
         <v>75</v>
       </c>
       <c r="Z124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA124" t="n">
         <v>-0.1</v>
@@ -14151,7 +14157,7 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD124" t="n">
         <v>-0.1</v>
@@ -14160,15 +14166,15 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C125" t="n">
         <v>0.1</v>
@@ -14263,10 +14269,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -14302,7 +14308,7 @@
         <v>65</v>
       </c>
       <c r="N126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O126" t="n">
         <v>-0.1</v>
@@ -14311,7 +14317,7 @@
         <v>65</v>
       </c>
       <c r="Q126" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R126" t="n">
         <v>0.1</v>
@@ -14338,7 +14344,7 @@
         <v>60</v>
       </c>
       <c r="Z126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA126" t="n">
         <v>-0.1</v>
@@ -14347,7 +14353,7 @@
         <v>60</v>
       </c>
       <c r="AC126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AD126" t="n">
         <v>-0.1</v>
@@ -14356,15 +14362,15 @@
         <v>60</v>
       </c>
       <c r="AF126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B127" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C127" t="n">
         <v>-0.1</v>
@@ -14373,7 +14379,7 @@
         <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1</v>
@@ -14382,7 +14388,7 @@
         <v>75</v>
       </c>
       <c r="H127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I127" t="n">
         <v>-0.1</v>
@@ -14391,7 +14397,7 @@
         <v>75</v>
       </c>
       <c r="K127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L127" t="n">
         <v>-0.1</v>
@@ -14400,7 +14406,7 @@
         <v>85</v>
       </c>
       <c r="N127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O127" t="n">
         <v>-0.1</v>
@@ -14409,7 +14415,7 @@
         <v>85</v>
       </c>
       <c r="Q127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R127" t="n">
         <v>-0.1</v>
@@ -14418,7 +14424,7 @@
         <v>70</v>
       </c>
       <c r="T127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U127" t="n">
         <v>-0.1</v>
@@ -14427,7 +14433,7 @@
         <v>70</v>
       </c>
       <c r="W127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="X127" t="n">
         <v>-0.1</v>
@@ -14436,7 +14442,7 @@
         <v>75</v>
       </c>
       <c r="Z127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA127" t="n">
         <v>-0.1</v>
@@ -14445,7 +14451,7 @@
         <v>75</v>
       </c>
       <c r="AC127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD127" t="n">
         <v>-0.1</v>
@@ -14454,15 +14460,15 @@
         <v>75</v>
       </c>
       <c r="AF127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C128" t="n">
         <v>0.1</v>
@@ -14534,7 +14540,7 @@
         <v>55</v>
       </c>
       <c r="Z128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA128" t="n">
         <v>0.1</v>
@@ -14543,7 +14549,7 @@
         <v>55</v>
       </c>
       <c r="AC128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AD128" t="n">
         <v>0.1</v>
@@ -14552,15 +14558,15 @@
         <v>55</v>
       </c>
       <c r="AF128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B129" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C129" t="n">
         <v>-0.1</v>
@@ -14569,7 +14575,7 @@
         <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F129" t="n">
         <v>-0.1</v>
@@ -14578,7 +14584,7 @@
         <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I129" t="n">
         <v>-0.1</v>
@@ -14587,7 +14593,7 @@
         <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L129" t="n">
         <v>-0.1</v>
@@ -14596,7 +14602,7 @@
         <v>65</v>
       </c>
       <c r="N129" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O129" t="n">
         <v>-0.1</v>
@@ -14605,7 +14611,7 @@
         <v>65</v>
       </c>
       <c r="Q129" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R129" t="n">
         <v>-0.1</v>
@@ -14614,7 +14620,7 @@
         <v>70</v>
       </c>
       <c r="T129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U129" t="n">
         <v>-0.1</v>
@@ -14623,7 +14629,7 @@
         <v>70</v>
       </c>
       <c r="W129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="X129" t="n">
         <v>-0.1</v>
@@ -14632,7 +14638,7 @@
         <v>70</v>
       </c>
       <c r="Z129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1</v>
@@ -14641,7 +14647,7 @@
         <v>70</v>
       </c>
       <c r="AC129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD129" t="n">
         <v>-0.1</v>
@@ -14650,15 +14656,15 @@
         <v>70</v>
       </c>
       <c r="AF129" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C130" t="n">
         <v>0.1</v>
@@ -14694,7 +14700,7 @@
         <v>75</v>
       </c>
       <c r="N130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O130" t="n">
         <v>-0.1</v>
@@ -14703,7 +14709,7 @@
         <v>75</v>
       </c>
       <c r="Q130" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R130" t="n">
         <v>0.1</v>
@@ -14730,7 +14736,7 @@
         <v>70</v>
       </c>
       <c r="Z130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA130" t="n">
         <v>-0.1</v>
@@ -14739,7 +14745,7 @@
         <v>70</v>
       </c>
       <c r="AC130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD130" t="n">
         <v>-0.1</v>
@@ -14748,15 +14754,15 @@
         <v>70</v>
       </c>
       <c r="AF130" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -14765,7 +14771,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -14774,7 +14780,7 @@
         <v>55</v>
       </c>
       <c r="H131" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -14783,7 +14789,7 @@
         <v>55</v>
       </c>
       <c r="K131" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L131" t="n">
         <v>-0.1</v>
@@ -14792,7 +14798,7 @@
         <v>55</v>
       </c>
       <c r="N131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O131" t="n">
         <v>-0.1</v>
@@ -14801,7 +14807,7 @@
         <v>55</v>
       </c>
       <c r="Q131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R131" t="n">
         <v>-0.1</v>
@@ -14810,7 +14816,7 @@
         <v>55</v>
       </c>
       <c r="T131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="U131" t="n">
         <v>-0.1</v>
@@ -14819,7 +14825,7 @@
         <v>55</v>
       </c>
       <c r="W131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X131" t="n">
         <v>-0.1</v>
@@ -14828,7 +14834,7 @@
         <v>60</v>
       </c>
       <c r="Z131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA131" t="n">
         <v>-0.1</v>
@@ -14837,7 +14843,7 @@
         <v>60</v>
       </c>
       <c r="AC131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AD131" t="n">
         <v>-0.1</v>
@@ -14846,7 +14852,7 @@
         <v>60</v>
       </c>
       <c r="AF131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
